--- a/assets/spreadsheets/gabarito_modelo.xlsx
+++ b/assets/spreadsheets/gabarito_modelo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinim\Documents\Projects GitHub\Automated-Multiple-Choice-Exam-Grading-System\assets\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDFC1C39-CEF8-441C-B92D-16DB448AF3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BE1B39-73FF-40C8-9051-B5218965F30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F036D55C-18BC-45D5-9539-D3CFB920C912}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="SALA &amp; DIA 1" sheetId="1" r:id="rId1"/>
+    <sheet name="SALA &amp; DIA 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
-  <si>
-    <t>1A 1 BIMESTRE 1 DIA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>NUMERO DA QUESTÃO</t>
   </si>
@@ -78,6 +76,9 @@
   </si>
   <si>
     <t>Aluno</t>
+  </si>
+  <si>
+    <t>Sala &amp; Título &amp; Dia</t>
   </si>
 </sst>
 </file>
@@ -173,9 +174,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -191,11 +189,711 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="5" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="5" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="5" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="5" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFFFF66"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -680,7 +1378,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B2" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,77 +1390,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -770,31 +1466,162 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3 A4:D6">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>AND((A3=A$4), (LEN(A3)&lt;2))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="22" priority="8">
+      <formula>AND((A3&lt;&gt;A$4), (LEN(A3)&lt;2))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="1">
+      <formula>AND((LEN(A3)&lt;2), (A$4=""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:A6">
+    <cfRule type="expression" dxfId="21" priority="2">
+      <formula>MOD(ROW($A5),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:D2">
+    <cfRule type="expression" dxfId="20" priority="4">
+      <formula>ROW()=2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:D6">
+    <cfRule type="expression" dxfId="19" priority="3">
+      <formula>ROW()=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="5">
+      <formula>$A3="MATÉRIA"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="6">
+      <formula>AND((A3=""), (LEN(A3)&lt;2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B6A8DE-E642-49B3-B260-106D90A4E1AF}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A3 A4:D6">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>AND((LEN(A3)&lt;2), (A$4=""))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>AND((A3=A$4), (LEN(A3)&lt;2))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>AND((A3&lt;&gt;A$4), (LEN(A3)&lt;2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A6">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>MOD(ROW($A5),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D2">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>ROW()=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D6">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>ROW()=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>$A3="MATÉRIA"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>AND((A3=""), (LEN(A3)&lt;2))</formula>
     </cfRule>
   </conditionalFormatting>
